--- a/src/test/resources/TestDataNew.xlsx
+++ b/src/test/resources/TestDataNew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10485" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Ankush" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -30,7 +31,7 @@
     <t>Display Name</t>
   </si>
   <si>
-    <t>Sunaina</t>
+    <t>Sunai na</t>
   </si>
 </sst>
 </file>
@@ -379,7 +380,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
